--- a/biology/Zoologie/Chenil/Chenil.xlsx
+++ b/biology/Zoologie/Chenil/Chenil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chenil (prononcé \ʃə.ni(l)\) est un établissement destiné à l'élevage ou à la pension de chiens ou le bâtiment qui abrite une meute de chiens de chasse.
 </t>
@@ -511,7 +523,9 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En France, la construction d'un chenil est réglementée, cela dépendra du nombre de chiens qui seront amenés à y loger :
 Moins de 10 chiens : règlement sanitaire départemental[réf. nécessaire]
@@ -543,7 +557,9 @@
           <t>Au Canada</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Canada, ces chiens[Lesquels ?] doivent être enregistrés ou éligibles à être enregistrés avec une association incorporée sous la Loi sur la généalogie des animaux.
 </t>
@@ -574,7 +590,9 @@
           <t>Une habitation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme chenil est également utilisé pour parler de l'enclos d'un chien, il permettra à celui-ci de ne pas s'enfuir. Il existe par exemple des chenils qui fonctionnent à l'aide de panneaux, il suffit simplement de les emboîter pour créer la taille désirée.
 </t>
